--- a/point_disorder_paper/parameters.xlsx
+++ b/point_disorder_paper/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\point-disorder\point_disorder_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AF7E56-5FAE-4EDB-9A57-E9D4B61F9613}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F635DA55-BCB0-4B95-9B34-178F78FBEDF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Parameter</t>
   </si>
   <si>
     <t>Meaning</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <t>r</t>
@@ -68,88 +65,28 @@
     <t>Assignment Type</t>
   </si>
   <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>coop</t>
-  </si>
-  <si>
-    <t>punish_out_of_hull</t>
-  </si>
-  <si>
-    <t>punishment</t>
-  </si>
-  <si>
-    <t>reorientation</t>
-  </si>
-  <si>
     <t>Punishment Level</t>
   </si>
   <si>
-    <t>euc</t>
-  </si>
-  <si>
-    <t>The assignment deviation at which the sigmoidal scoring function 
-assigns a score of 0.5</t>
-  </si>
-  <si>
-    <t>The degree of cooperativity of the sigmoidal scoring function</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Higher values of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> make the function increasingly sigmoidal.
-Values of 1 or lower result in a hyperbolic function.</t>
-    </r>
-  </si>
-  <si>
     <t>The assignment score given to unpaired points</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether to assign the punishment score to unpaired points to all </t>
-  </si>
-  <si>
-    <t>Whether to use a euclidean or sigmoidal assignment cost function</t>
-  </si>
-  <si>
-    <t>If True, use a the euclidean distance as the assignment cost.
-If False, use the sigmoidal scoring function.</t>
-  </si>
-  <si>
-    <t>If True, punish all unassigned points. If False, punish only those
-that fall within the convex hull of assigned points.</t>
-  </si>
-  <si>
-    <t>Parameter Name in Figures</t>
-  </si>
-  <si>
-    <t>Whether to apply ICP reorientation during the calculation of the IoD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a numerical value, the ICP is applied until 20 iterations have elapsed or the deviation is less than the value supplied, whichever comes first. If False, no reorientation is applied. </t>
-  </si>
-  <si>
     <t>The neighborhood radius</t>
+  </si>
+  <si>
+    <t>The assignment deviation at which the sigmoidal scoring function assigns a score of 0.5</t>
+  </si>
+  <si>
+    <t>The degree of cooperativity of the sigmoidal scoring function. Higher values of n make the function increasingly sigmoidal. Values of 1 or lower result in a hyperbolic function.</t>
+  </si>
+  <si>
+    <t>Whether to assign the punishment score to unpaired points. If True, punish all unpaired points. If False, punish only those that fall within the convex hull of assigned points.</t>
+  </si>
+  <si>
+    <t>Whether to use a euclidean or sigmoidal assignment cost function. If True, use a the euclidean distance as the assignment cost. If False, use the sigmoidal scoring function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether to apply ICP reorientation during the calculation of the IoD. If a numerical value, the ICP is applied until 20 iterations have elapsed or the deviation is less than the value supplied, whichever comes first. If False, no reorientation is applied. </t>
   </si>
 </sst>
 </file>
@@ -513,124 +450,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.1328125" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.73046875" customWidth="1"/>
-    <col min="4" max="4" width="51.265625" customWidth="1"/>
+    <col min="2" max="2" width="77.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="29.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
